--- a/仕様書/【CSDC】91_アニメーション詳細.xlsx
+++ b/仕様書/【CSDC】91_アニメーション詳細.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBBFF430-BE7D-4A6D-9EC3-74468DDF2210}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileSharing userName="Nakao" reservationPassword="C73B"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="トップ" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -981,7 +981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -989,21 +989,21 @@
       <selection pane="bottomLeft" activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:41" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
@@ -1047,7 +1047,7 @@
       <c r="AB4" s="24"/>
       <c r="AC4" s="24"/>
     </row>
-    <row r="5" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -1077,8 +1077,8 @@
       <c r="AB5" s="24"/>
       <c r="AC5" s="24"/>
     </row>
-    <row r="6" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="7" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="7" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="AN7" s="19"/>
       <c r="AO7" s="20"/>
     </row>
-    <row r="8" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="21" t="s">
         <v>14</v>
       </c>
@@ -1172,7 +1172,7 @@
       <c r="AN8" s="22"/>
       <c r="AO8" s="23"/>
     </row>
-    <row r="9" spans="1:41" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:41" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -1214,7 +1214,7 @@
       <c r="AN9" s="15"/>
       <c r="AO9" s="17"/>
     </row>
-    <row r="10" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -1256,7 +1256,7 @@
       <c r="AN10" s="15"/>
       <c r="AO10" s="17"/>
     </row>
-    <row r="11" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1298,7 +1298,7 @@
       <c r="AN11" s="10"/>
       <c r="AO11" s="12"/>
     </row>
-    <row r="12" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1340,7 +1340,7 @@
       <c r="AN12" s="10"/>
       <c r="AO12" s="12"/>
     </row>
-    <row r="13" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1382,7 +1382,7 @@
       <c r="AN13" s="10"/>
       <c r="AO13" s="12"/>
     </row>
-    <row r="14" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1424,7 +1424,7 @@
       <c r="AN14" s="10"/>
       <c r="AO14" s="12"/>
     </row>
-    <row r="15" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1466,7 +1466,7 @@
       <c r="AN15" s="10"/>
       <c r="AO15" s="12"/>
     </row>
-    <row r="16" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1508,7 +1508,7 @@
       <c r="AN16" s="10"/>
       <c r="AO16" s="12"/>
     </row>
-    <row r="17" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1550,7 +1550,7 @@
       <c r="AN17" s="10"/>
       <c r="AO17" s="12"/>
     </row>
-    <row r="18" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1592,7 +1592,7 @@
       <c r="AN18" s="10"/>
       <c r="AO18" s="12"/>
     </row>
-    <row r="19" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1634,7 +1634,7 @@
       <c r="AN19" s="10"/>
       <c r="AO19" s="12"/>
     </row>
-    <row r="20" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1676,7 +1676,7 @@
       <c r="AN20" s="10"/>
       <c r="AO20" s="12"/>
     </row>
-    <row r="21" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1718,7 +1718,7 @@
       <c r="AN21" s="10"/>
       <c r="AO21" s="12"/>
     </row>
-    <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1760,7 +1760,7 @@
       <c r="AN22" s="10"/>
       <c r="AO22" s="12"/>
     </row>
-    <row r="23" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1802,7 +1802,7 @@
       <c r="AN23" s="10"/>
       <c r="AO23" s="12"/>
     </row>
-    <row r="24" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1844,7 +1844,7 @@
       <c r="AN24" s="10"/>
       <c r="AO24" s="12"/>
     </row>
-    <row r="25" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="8"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1886,7 +1886,7 @@
       <c r="AN25" s="10"/>
       <c r="AO25" s="12"/>
     </row>
-    <row r="26" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1928,7 +1928,7 @@
       <c r="AN26" s="10"/>
       <c r="AO26" s="12"/>
     </row>
-    <row r="27" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1970,7 +1970,7 @@
       <c r="AN27" s="10"/>
       <c r="AO27" s="12"/>
     </row>
-    <row r="28" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -2012,7 +2012,7 @@
       <c r="AN28" s="10"/>
       <c r="AO28" s="12"/>
     </row>
-    <row r="29" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -2054,7 +2054,7 @@
       <c r="AN29" s="10"/>
       <c r="AO29" s="12"/>
     </row>
-    <row r="30" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2096,7 +2096,7 @@
       <c r="AN30" s="10"/>
       <c r="AO30" s="12"/>
     </row>
-    <row r="31" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -2138,7 +2138,7 @@
       <c r="AN31" s="10"/>
       <c r="AO31" s="12"/>
     </row>
-    <row r="32" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="8"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2180,7 +2180,7 @@
       <c r="AN32" s="10"/>
       <c r="AO32" s="12"/>
     </row>
-    <row r="33" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="8"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2222,7 +2222,7 @@
       <c r="AN33" s="10"/>
       <c r="AO33" s="12"/>
     </row>
-    <row r="34" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -2264,7 +2264,7 @@
       <c r="AN34" s="10"/>
       <c r="AO34" s="12"/>
     </row>
-    <row r="35" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="8"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2306,7 +2306,7 @@
       <c r="AN35" s="10"/>
       <c r="AO35" s="12"/>
     </row>
-    <row r="36" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="8"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2348,7 +2348,7 @@
       <c r="AN36" s="10"/>
       <c r="AO36" s="12"/>
     </row>
-    <row r="37" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:41" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2524,12 +2524,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1" xr:uid="{8502BA42-3A61-4A49-8477-705A05F483FE}"/>
-    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2" xr:uid="{1388767F-A358-4FA6-867A-5A2B92EED372}"/>
-    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3" xr:uid="{C95BC720-0E1D-4FC5-8146-B14899D46EC4}"/>
-    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4" xr:uid="{97B69269-617A-49A2-87A3-3A8F627CCB0B}"/>
-    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5" xr:uid="{C19DB74C-E94D-48F1-A9C6-5BB9AF52BB27}"/>
-    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ" xr:uid="{50A7350F-FCE6-44CD-A21A-AA1E8EB111FB}"/>
+    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
+    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
+    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
+    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
+    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2537,7 +2537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2545,21 +2545,21 @@
       <selection pane="bottomLeft" activeCell="O18" sqref="O18:R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:48" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
@@ -2603,7 +2603,7 @@
       <c r="AB4" s="45"/>
       <c r="AC4" s="45"/>
     </row>
-    <row r="5" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -2633,8 +2633,8 @@
       <c r="AB5" s="45"/>
       <c r="AC5" s="45"/>
     </row>
-    <row r="6" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="7" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="7" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="38"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
@@ -2683,7 +2683,7 @@
       <c r="AU7" s="39"/>
       <c r="AV7" s="40"/>
     </row>
-    <row r="8" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="41"/>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
@@ -2732,7 +2732,7 @@
       <c r="AU8" s="42"/>
       <c r="AV8" s="43"/>
     </row>
-    <row r="9" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="44" t="s">
         <v>22</v>
       </c>
@@ -2791,7 +2791,7 @@
       <c r="AU9" s="15"/>
       <c r="AV9" s="17"/>
     </row>
-    <row r="10" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="29"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -2840,7 +2840,7 @@
       <c r="AU10" s="32"/>
       <c r="AV10" s="33"/>
     </row>
-    <row r="11" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="29"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -2889,7 +2889,7 @@
       <c r="AU11" s="32"/>
       <c r="AV11" s="33"/>
     </row>
-    <row r="12" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="29"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -2938,7 +2938,7 @@
       <c r="AU12" s="32"/>
       <c r="AV12" s="33"/>
     </row>
-    <row r="13" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="29"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -2987,7 +2987,7 @@
       <c r="AU13" s="32"/>
       <c r="AV13" s="33"/>
     </row>
-    <row r="14" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="29"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -3036,7 +3036,7 @@
       <c r="AU14" s="32"/>
       <c r="AV14" s="33"/>
     </row>
-    <row r="15" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="29"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -3085,7 +3085,7 @@
       <c r="AU15" s="32"/>
       <c r="AV15" s="33"/>
     </row>
-    <row r="16" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="29"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -3134,7 +3134,7 @@
       <c r="AU16" s="32"/>
       <c r="AV16" s="33"/>
     </row>
-    <row r="17" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="29"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -3183,7 +3183,7 @@
       <c r="AU17" s="32"/>
       <c r="AV17" s="33"/>
     </row>
-    <row r="18" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="29"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -3232,7 +3232,7 @@
       <c r="AU18" s="32"/>
       <c r="AV18" s="33"/>
     </row>
-    <row r="19" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="29"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -3281,7 +3281,7 @@
       <c r="AU19" s="32"/>
       <c r="AV19" s="33"/>
     </row>
-    <row r="20" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="29"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -3330,7 +3330,7 @@
       <c r="AU20" s="32"/>
       <c r="AV20" s="33"/>
     </row>
-    <row r="21" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="29"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -3379,7 +3379,7 @@
       <c r="AU21" s="32"/>
       <c r="AV21" s="33"/>
     </row>
-    <row r="22" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="29"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -3428,7 +3428,7 @@
       <c r="AU22" s="32"/>
       <c r="AV22" s="33"/>
     </row>
-    <row r="23" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="29"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -3477,7 +3477,7 @@
       <c r="AU23" s="32"/>
       <c r="AV23" s="33"/>
     </row>
-    <row r="24" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="29"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -3526,7 +3526,7 @@
       <c r="AU24" s="32"/>
       <c r="AV24" s="33"/>
     </row>
-    <row r="25" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="29"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -3575,7 +3575,7 @@
       <c r="AU25" s="32"/>
       <c r="AV25" s="33"/>
     </row>
-    <row r="26" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="29"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -3624,7 +3624,7 @@
       <c r="AU26" s="32"/>
       <c r="AV26" s="33"/>
     </row>
-    <row r="27" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="29"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -3673,7 +3673,7 @@
       <c r="AU27" s="32"/>
       <c r="AV27" s="33"/>
     </row>
-    <row r="28" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="29"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -3722,7 +3722,7 @@
       <c r="AU28" s="32"/>
       <c r="AV28" s="33"/>
     </row>
-    <row r="29" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="29"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
@@ -3771,7 +3771,7 @@
       <c r="AU29" s="32"/>
       <c r="AV29" s="33"/>
     </row>
-    <row r="30" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="29"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -3820,7 +3820,7 @@
       <c r="AU30" s="32"/>
       <c r="AV30" s="33"/>
     </row>
-    <row r="31" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="29"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -3869,7 +3869,7 @@
       <c r="AU31" s="32"/>
       <c r="AV31" s="33"/>
     </row>
-    <row r="32" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="36"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -3918,7 +3918,7 @@
       <c r="AU32" s="32"/>
       <c r="AV32" s="33"/>
     </row>
-    <row r="33" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="29"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
@@ -3967,7 +3967,7 @@
       <c r="AU33" s="32"/>
       <c r="AV33" s="33"/>
     </row>
-    <row r="34" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="36"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -4016,7 +4016,7 @@
       <c r="AU34" s="32"/>
       <c r="AV34" s="33"/>
     </row>
-    <row r="35" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="29"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -4065,7 +4065,7 @@
       <c r="AU35" s="32"/>
       <c r="AV35" s="33"/>
     </row>
-    <row r="36" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="29"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -4114,7 +4114,7 @@
       <c r="AU36" s="32"/>
       <c r="AV36" s="33"/>
     </row>
-    <row r="37" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="29"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -4163,7 +4163,7 @@
       <c r="AU37" s="32"/>
       <c r="AV37" s="33"/>
     </row>
-    <row r="38" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:48" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="29"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -4212,7 +4212,7 @@
       <c r="AU38" s="32"/>
       <c r="AV38" s="33"/>
     </row>
-    <row r="39" spans="2:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:48" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="30"/>
       <c r="C39" s="31"/>
       <c r="D39" s="31"/>
@@ -4355,12 +4355,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1" xr:uid="{8DCB77BB-434D-4C51-B13B-1F5B9EAEA1FD}"/>
-    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2" xr:uid="{E12DE0D8-2322-4FF6-8375-B6D19D08D27B}"/>
-    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3" xr:uid="{A865FAFD-55EB-4C90-907B-82542FBDCB87}"/>
-    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4" xr:uid="{3667B876-2AC5-4D84-B048-4FA4D0E10712}"/>
-    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5" xr:uid="{A228179B-CFD4-47F5-BAD5-0D81152B9E70}"/>
-    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ" xr:uid="{FF9F4F95-7813-4533-B322-BFC3894AC550}"/>
+    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
+    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
+    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
+    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
+    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4368,7 +4368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4376,21 +4376,21 @@
       <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="46" t="s">
         <v>1</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="AB4" s="48"/>
       <c r="AC4" s="48"/>
     </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
@@ -4477,12 +4477,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1" xr:uid="{E4EC6AD2-2817-433E-8D94-7C9999AE94E4}"/>
-    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2" xr:uid="{8D033FD0-8D12-460A-A9AC-A6738218B9CC}"/>
-    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3" xr:uid="{C2E32065-2592-48D1-9A26-647120297D50}"/>
-    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4" xr:uid="{5F0CED30-7849-44EE-A0E6-70EF71C6EBCC}"/>
-    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5" xr:uid="{B32CCB5F-B40A-4BAA-9622-45C1CE0A740B}"/>
-    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ" xr:uid="{1C321920-2688-44C3-81D7-9051BDA6ED60}"/>
+    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
+    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
+    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
+    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
+    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4490,7 +4490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4498,21 +4498,21 @@
       <selection pane="bottomLeft" activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="46" t="s">
         <v>1</v>
       </c>
@@ -4556,7 +4556,7 @@
       <c r="AB4" s="48"/>
       <c r="AC4" s="48"/>
     </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
@@ -4599,12 +4599,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1" xr:uid="{7736CEB5-CD01-4EF5-8171-D109BA924C3C}"/>
-    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2" xr:uid="{3841490C-E6AD-4813-A355-0EEBD2F02850}"/>
-    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3" xr:uid="{5B14AF64-042B-4EBA-9345-02BB0957E6AA}"/>
-    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4" xr:uid="{9D712066-27F1-408F-9029-3024CAAFF8D9}"/>
-    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5" xr:uid="{F085858B-B257-4F11-A2AE-822F15E439D9}"/>
-    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ" xr:uid="{7A04E4E6-B63D-499A-940C-1C415EA8AF23}"/>
+    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
+    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
+    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
+    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
+    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4612,7 +4612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4620,21 +4620,21 @@
       <selection pane="bottomLeft" activeCell="V4" sqref="V4:Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="46" t="s">
         <v>1</v>
       </c>
@@ -4678,7 +4678,7 @@
       <c r="AB4" s="48"/>
       <c r="AC4" s="48"/>
     </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
@@ -4721,12 +4721,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1" xr:uid="{FCA97F6C-D2B9-474F-9D66-4F8F4E5782B5}"/>
-    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2" xr:uid="{50E01AC6-C146-45A1-9EB8-484B2019FA67}"/>
-    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3" xr:uid="{41B24DAC-633F-4076-A2C8-19C25B06B3DF}"/>
-    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4" xr:uid="{12FBD9D9-FBCD-4FD3-BCB3-8652DED8F1F0}"/>
-    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5" xr:uid="{6EB5D335-8644-4AC4-9D04-C204833798BC}"/>
-    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ" xr:uid="{3A4FD47A-98CC-4CA5-8AE7-C8391E14B861}"/>
+    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
+    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
+    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
+    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
+    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4734,7 +4734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4742,21 +4742,21 @@
       <selection pane="bottomLeft" activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="52" width="3" style="1"/>
     <col min="53" max="53" width="3" style="2"/>
     <col min="54" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="3" spans="1:29" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
@@ -4800,7 +4800,7 @@
       <c r="AB4" s="49"/>
       <c r="AC4" s="49"/>
     </row>
-    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -4843,12 +4843,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1" xr:uid="{41996660-7088-44A7-8635-E576B8FB1749}"/>
-    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2" xr:uid="{D469651F-B41E-4076-9953-8D782205D32F}"/>
-    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3" xr:uid="{A3030557-C95D-4A49-A6C1-51C0D72B84D9}"/>
-    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4" xr:uid="{CD1EB01E-DEDE-4F68-BA56-AB31C44A3F6C}"/>
-    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5" xr:uid="{7B12842B-55B2-492B-A96D-47328009FF44}"/>
-    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ" xr:uid="{14FF2D82-6FB5-4124-8234-C49173D8AD63}"/>
+    <hyperlink ref="J4:M5" location="仕様項目1!J4" display="仕様項目1"/>
+    <hyperlink ref="N4:Q5" location="仕様項目2!N4" display="仕様項目2"/>
+    <hyperlink ref="R4:U5" location="仕様項目3!R4" display="仕様項目3"/>
+    <hyperlink ref="V4:Y5" location="仕様項目4!V4" display="仕様項目4"/>
+    <hyperlink ref="Z4:AC5" location="仕様項目5!Z4" display="仕様項目5"/>
+    <hyperlink ref="F4:I5" location="トップ!F4" display="トップ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
